--- a/Excel/auth_64/main/07/s04/cmn.xlsx
+++ b/Excel/auth_64/main/07/s04/cmn.xlsx
@@ -1,43 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>OFFSET</t>
+    <t xml:space="preserve">OFFSET</t>
   </si>
   <si>
-    <t>ORIGINAL</t>
+    <t xml:space="preserve">ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t xml:space="preserve">TRADUÇÃO</t>
   </si>
   <si>
-    <t>Boss is waiting for you at the far end, underground.</t>
+    <t xml:space="preserve">Boss is waiting for you at the far end, underground.</t>
   </si>
   <si>
-    <t>Go ahead.</t>
+    <t xml:space="preserve">O Chefe está te esperando no subterrâneo, no fundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vá em frente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +82,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -57,61 +90,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="44.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>60372</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>60644</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>60644</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>